--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gordon/Pyrshang/degree_cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF1A01A1-B8A7-0141-A635-B0C8F57E2834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE63A55D-37A2-E143-923D-B1F412487CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="33740" windowHeight="20660" xr2:uid="{C3991BBA-3F2C-5943-9615-7E6A6E261625}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="15360" xr2:uid="{C3991BBA-3F2C-5943-9615-7E6A6E261625}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>categories</t>
   </si>
@@ -51,6 +51,27 @@
   </si>
   <si>
     <t>default - active</t>
+  </si>
+  <si>
+    <t>menus</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>default- active</t>
   </si>
 </sst>
 </file>
@@ -74,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,6 +105,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -100,9 +127,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2440E910-53EC-194C-97AC-053067423E2C}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -457,6 +485,48 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gordon/Pyrshang/degree_cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE63A55D-37A2-E143-923D-B1F412487CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6153D8-D0C3-224F-BD3A-B2A7FF679CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="15360" xr2:uid="{C3991BBA-3F2C-5943-9615-7E6A6E261625}"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="20480" windowHeight="15360" xr2:uid="{C3991BBA-3F2C-5943-9615-7E6A6E261625}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>categories</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>default- active</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>nullable</t>
   </si>
 </sst>
 </file>
@@ -445,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2440E910-53EC-194C-97AC-053067423E2C}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,6 +533,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gordon/Pyrshang/degree_cafe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6153D8-D0C3-224F-BD3A-B2A7FF679CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A4B094-E043-CD4E-A184-81274C198AC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="20480" windowHeight="15360" xr2:uid="{C3991BBA-3F2C-5943-9615-7E6A6E261625}"/>
+    <workbookView xWindow="6980" yWindow="1040" windowWidth="20480" windowHeight="15360" xr2:uid="{C3991BBA-3F2C-5943-9615-7E6A6E261625}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>categories</t>
   </si>
@@ -78,6 +78,48 @@
   </si>
   <si>
     <t>nullable</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>invoice_no</t>
+  </si>
+  <si>
+    <t>invoice_date</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>sale_id</t>
+  </si>
+  <si>
+    <t>menu_id</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>seat_id</t>
   </si>
 </sst>
 </file>
@@ -451,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2440E910-53EC-194C-97AC-053067423E2C}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,83 +504,183 @@
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
